--- a/biology/Zoologie/Felimare_fontandraui/Felimare_fontandraui.xlsx
+++ b/biology/Zoologie/Felimare_fontandraui/Felimare_fontandraui.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Doris de Fontandrau
 Le doris de Fontandrau  (Felimare fontandraui) est un nudibranche de la famille des chromodorididés, visible en Méditerranée occidentale et proche Atlantique.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce nudibranche, d'une taille de 30 à 40 millimètres[1],  est d'un bleu violet plutôt translucide. Son manteau est bordé d'une ligne jaune orangé et traversé sur sa longueur par une bande irrégulière, jaune ou blanche, qui se termine en « T » en avant des rhinophores. Ceux-ci, ainsi que les branchies, sont massifs, plus foncés que le reste du corps.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce nudibranche, d'une taille de 30 à 40 millimètres,  est d'un bleu violet plutôt translucide. Son manteau est bordé d'une ligne jaune orangé et traversé sur sa longueur par une bande irrégulière, jaune ou blanche, qui se termine en « T » en avant des rhinophores. Ceux-ci, ainsi que les branchies, sont massifs, plus foncés que le reste du corps.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Biotope</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est observé en Méditerranée occidentale (Adriatique et de la Sicile à Gibraltar) et en Atlantique proche (Mer Cantabrique, Portugal, Açores, Îles Canaries). Il vit sur des algues brunes ou des éponges, rarement sur des posidonies, entre 3 et 40 mètres de profondeur, voire jusqu'à 100 m[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est observé en Méditerranée occidentale (Adriatique et de la Sicile à Gibraltar) et en Atlantique proche (Mer Cantabrique, Portugal, Açores, Îles Canaries). Il vit sur des algues brunes ou des éponges, rarement sur des posidonies, entre 3 et 40 mètres de profondeur, voire jusqu'à 100 m.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Fontandraui est une latinisation du Font-Andrau, près de Banyuls-sur-Mer.
 </t>
@@ -605,7 +623,9 @@
           <t>Espèces similaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Doris peint, Felimare picta (Schultz in Philippi, 1836)
 Doris tricolore, Felimare tricolor (Cantraine, 1835)</t>
